--- a/metrics/transfer_time/cleaned_data/nginx_08.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_08.nan.xlsx
@@ -624,14 +624,30 @@
       <c r="R2" t="n">
         <v>1155</v>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10820794</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W2" t="n">
+        <v>754</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -688,14 +704,30 @@
       <c r="R3" t="n">
         <v>1151</v>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10820794</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W3" t="n">
+        <v>754</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -752,14 +784,30 @@
       <c r="R4" t="n">
         <v>1150</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10820794</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W4" t="n">
+        <v>754</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -896,14 +944,30 @@
       <c r="R6" t="n">
         <v>1150</v>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10820794</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W6" t="n">
+        <v>754</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -960,14 +1024,30 @@
       <c r="R7" t="n">
         <v>1149</v>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10820794</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W7" t="n">
+        <v>754</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1024,14 +1104,30 @@
       <c r="R8" t="n">
         <v>1149</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10820794</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W8" t="n">
+        <v>754</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1088,14 +1184,30 @@
       <c r="R9" t="n">
         <v>1150</v>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10820794</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W9" t="n">
+        <v>754</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1232,14 +1344,30 @@
       <c r="R11" t="n">
         <v>1149</v>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10821094</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W11" t="n">
+        <v>754</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1296,14 +1424,30 @@
       <c r="R12" t="n">
         <v>1149</v>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10821094</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W12" t="n">
+        <v>754</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1360,14 +1504,30 @@
       <c r="R13" t="n">
         <v>1150</v>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10821094</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W13" t="n">
+        <v>754</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1424,14 +1584,30 @@
       <c r="R14" t="n">
         <v>1149</v>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U14" t="n">
+        <v>10821094</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W14" t="n">
+        <v>754</v>
+      </c>
+      <c r="X14" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1568,14 +1744,30 @@
       <c r="R16" t="n">
         <v>1150</v>
       </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U16" t="n">
+        <v>10821394</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W16" t="n">
+        <v>754</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1632,14 +1824,30 @@
       <c r="R17" t="n">
         <v>1149</v>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10821394</v>
+      </c>
+      <c r="V17" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W17" t="n">
+        <v>754</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1696,14 +1904,30 @@
       <c r="R18" t="n">
         <v>1149</v>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U18" t="n">
+        <v>10821394</v>
+      </c>
+      <c r="V18" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W18" t="n">
+        <v>754</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1760,14 +1984,30 @@
       <c r="R19" t="n">
         <v>1151</v>
       </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U19" t="n">
+        <v>10821394</v>
+      </c>
+      <c r="V19" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W19" t="n">
+        <v>754</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1904,14 +2144,30 @@
       <c r="R21" t="n">
         <v>1150</v>
       </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U21" t="n">
+        <v>10821694</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W21" t="n">
+        <v>754</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1968,14 +2224,30 @@
       <c r="R22" t="n">
         <v>1150</v>
       </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U22" t="n">
+        <v>10821694</v>
+      </c>
+      <c r="V22" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W22" t="n">
+        <v>754</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -2032,14 +2304,30 @@
       <c r="R23" t="n">
         <v>1149</v>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10821694</v>
+      </c>
+      <c r="V23" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W23" t="n">
+        <v>754</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2096,14 +2384,30 @@
       <c r="R24" t="n">
         <v>1150</v>
       </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U24" t="n">
+        <v>10821694</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W24" t="n">
+        <v>754</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2240,14 +2544,30 @@
       <c r="R26" t="n">
         <v>1150</v>
       </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U26" t="n">
+        <v>10821994</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W26" t="n">
+        <v>754</v>
+      </c>
+      <c r="X26" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2304,14 +2624,30 @@
       <c r="R27" t="n">
         <v>1149</v>
       </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10821994</v>
+      </c>
+      <c r="V27" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W27" t="n">
+        <v>754</v>
+      </c>
+      <c r="X27" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2368,14 +2704,30 @@
       <c r="R28" t="n">
         <v>1149</v>
       </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U28" t="n">
+        <v>10821994</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W28" t="n">
+        <v>754</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2432,14 +2784,30 @@
       <c r="R29" t="n">
         <v>1150</v>
       </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10821994</v>
+      </c>
+      <c r="V29" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W29" t="n">
+        <v>754</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2576,14 +2944,30 @@
       <c r="R31" t="n">
         <v>1150</v>
       </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U31" t="n">
+        <v>10822294</v>
+      </c>
+      <c r="V31" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W31" t="n">
+        <v>754</v>
+      </c>
+      <c r="X31" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2640,14 +3024,30 @@
       <c r="R32" t="n">
         <v>1150</v>
       </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10822294</v>
+      </c>
+      <c r="V32" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W32" t="n">
+        <v>754</v>
+      </c>
+      <c r="X32" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2704,14 +3104,30 @@
       <c r="R33" t="n">
         <v>1149</v>
       </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U33" t="n">
+        <v>10822294</v>
+      </c>
+      <c r="V33" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W33" t="n">
+        <v>754</v>
+      </c>
+      <c r="X33" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2768,14 +3184,30 @@
       <c r="R34" t="n">
         <v>1150</v>
       </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U34" t="n">
+        <v>10822294</v>
+      </c>
+      <c r="V34" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W34" t="n">
+        <v>754</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2912,14 +3344,30 @@
       <c r="R36" t="n">
         <v>1150</v>
       </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U36" t="n">
+        <v>10822594</v>
+      </c>
+      <c r="V36" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W36" t="n">
+        <v>754</v>
+      </c>
+      <c r="X36" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2976,14 +3424,30 @@
       <c r="R37" t="n">
         <v>1149</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U37" t="n">
+        <v>10822594</v>
+      </c>
+      <c r="V37" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W37" t="n">
+        <v>754</v>
+      </c>
+      <c r="X37" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -3040,14 +3504,30 @@
       <c r="R38" t="n">
         <v>1149</v>
       </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U38" t="n">
+        <v>10822594</v>
+      </c>
+      <c r="V38" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W38" t="n">
+        <v>754</v>
+      </c>
+      <c r="X38" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3104,14 +3584,30 @@
       <c r="R39" t="n">
         <v>1150</v>
       </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U39" t="n">
+        <v>10822594</v>
+      </c>
+      <c r="V39" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W39" t="n">
+        <v>754</v>
+      </c>
+      <c r="X39" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3248,14 +3744,30 @@
       <c r="R41" t="n">
         <v>1149</v>
       </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U41" t="n">
+        <v>10822894</v>
+      </c>
+      <c r="V41" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W41" t="n">
+        <v>754</v>
+      </c>
+      <c r="X41" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3312,14 +3824,30 @@
       <c r="R42" t="n">
         <v>1149</v>
       </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U42" t="n">
+        <v>10822894</v>
+      </c>
+      <c r="V42" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W42" t="n">
+        <v>754</v>
+      </c>
+      <c r="X42" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3376,14 +3904,30 @@
       <c r="R43" t="n">
         <v>1148</v>
       </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U43" t="n">
+        <v>10822894</v>
+      </c>
+      <c r="V43" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W43" t="n">
+        <v>754</v>
+      </c>
+      <c r="X43" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3440,14 +3984,30 @@
       <c r="R44" t="n">
         <v>1148</v>
       </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U44" t="n">
+        <v>10822894</v>
+      </c>
+      <c r="V44" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W44" t="n">
+        <v>754</v>
+      </c>
+      <c r="X44" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3584,14 +4144,30 @@
       <c r="R46" t="n">
         <v>1148</v>
       </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U46" t="n">
+        <v>10823194</v>
+      </c>
+      <c r="V46" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W46" t="n">
+        <v>754</v>
+      </c>
+      <c r="X46" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3648,14 +4224,30 @@
       <c r="R47" t="n">
         <v>1148</v>
       </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U47" t="n">
+        <v>10823194</v>
+      </c>
+      <c r="V47" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W47" t="n">
+        <v>754</v>
+      </c>
+      <c r="X47" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3712,14 +4304,30 @@
       <c r="R48" t="n">
         <v>1150</v>
       </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U48" t="n">
+        <v>10823194</v>
+      </c>
+      <c r="V48" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W48" t="n">
+        <v>754</v>
+      </c>
+      <c r="X48" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3776,14 +4384,30 @@
       <c r="R49" t="n">
         <v>1151</v>
       </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U49" t="n">
+        <v>10823194</v>
+      </c>
+      <c r="V49" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W49" t="n">
+        <v>754</v>
+      </c>
+      <c r="X49" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3920,14 +4544,30 @@
       <c r="R51" t="n">
         <v>1150</v>
       </c>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U51" t="n">
+        <v>10823494</v>
+      </c>
+      <c r="V51" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W51" t="n">
+        <v>754</v>
+      </c>
+      <c r="X51" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3984,14 +4624,30 @@
       <c r="R52" t="n">
         <v>1148</v>
       </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U52" t="n">
+        <v>10823494</v>
+      </c>
+      <c r="V52" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W52" t="n">
+        <v>754</v>
+      </c>
+      <c r="X52" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -4048,14 +4704,30 @@
       <c r="R53" t="n">
         <v>1148</v>
       </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U53" t="n">
+        <v>10823494</v>
+      </c>
+      <c r="V53" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W53" t="n">
+        <v>754</v>
+      </c>
+      <c r="X53" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -4112,14 +4784,30 @@
       <c r="R54" t="n">
         <v>1148</v>
       </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U54" t="n">
+        <v>10823494</v>
+      </c>
+      <c r="V54" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W54" t="n">
+        <v>754</v>
+      </c>
+      <c r="X54" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -4256,14 +4944,30 @@
       <c r="R56" t="n">
         <v>1149</v>
       </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
+      <c r="S56" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U56" t="n">
+        <v>10823794</v>
+      </c>
+      <c r="V56" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W56" t="n">
+        <v>754</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -4320,14 +5024,30 @@
       <c r="R57" t="n">
         <v>1149</v>
       </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U57" t="n">
+        <v>10823794</v>
+      </c>
+      <c r="V57" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W57" t="n">
+        <v>754</v>
+      </c>
+      <c r="X57" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -4384,14 +5104,30 @@
       <c r="R58" t="n">
         <v>1148</v>
       </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U58" t="n">
+        <v>10823794</v>
+      </c>
+      <c r="V58" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W58" t="n">
+        <v>754</v>
+      </c>
+      <c r="X58" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4448,14 +5184,30 @@
       <c r="R59" t="n">
         <v>1148</v>
       </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U59" t="n">
+        <v>10823794</v>
+      </c>
+      <c r="V59" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W59" t="n">
+        <v>754</v>
+      </c>
+      <c r="X59" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -4654,7 +5406,9 @@
       <c r="L62" t="n">
         <v>2748</v>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>139</v>
+      </c>
       <c r="N62" t="n">
         <v>30.3</v>
       </c>
@@ -4670,14 +5424,30 @@
       <c r="R62" t="n">
         <v>1148</v>
       </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U62" t="n">
+        <v>10824094</v>
+      </c>
+      <c r="V62" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W62" t="n">
+        <v>754</v>
+      </c>
+      <c r="X62" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -4716,7 +5486,9 @@
       <c r="L63" t="n">
         <v>2748</v>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>139</v>
+      </c>
       <c r="N63" t="n">
         <v>30.3</v>
       </c>
@@ -4732,14 +5504,30 @@
       <c r="R63" t="n">
         <v>1148</v>
       </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U63" t="n">
+        <v>10824094</v>
+      </c>
+      <c r="V63" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W63" t="n">
+        <v>754</v>
+      </c>
+      <c r="X63" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4778,7 +5566,9 @@
       <c r="L64" t="n">
         <v>2748</v>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>139</v>
+      </c>
       <c r="N64" t="n">
         <v>30.3</v>
       </c>
@@ -4794,14 +5584,30 @@
       <c r="R64" t="n">
         <v>1148</v>
       </c>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U64" t="n">
+        <v>10824094</v>
+      </c>
+      <c r="V64" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W64" t="n">
+        <v>754</v>
+      </c>
+      <c r="X64" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4840,7 +5646,9 @@
       <c r="L65" t="n">
         <v>2748</v>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>139</v>
+      </c>
       <c r="N65" t="n">
         <v>30.3</v>
       </c>
@@ -4918,7 +5726,9 @@
       <c r="L66" t="n">
         <v>2748</v>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>139</v>
+      </c>
       <c r="N66" t="n">
         <v>30.32</v>
       </c>
@@ -4934,14 +5744,30 @@
       <c r="R66" t="n">
         <v>1149</v>
       </c>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U66" t="n">
+        <v>10824394</v>
+      </c>
+      <c r="V66" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W66" t="n">
+        <v>754</v>
+      </c>
+      <c r="X66" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4980,7 +5806,9 @@
       <c r="L67" t="n">
         <v>2748</v>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>139</v>
+      </c>
       <c r="N67" t="n">
         <v>30.32</v>
       </c>
@@ -4996,14 +5824,30 @@
       <c r="R67" t="n">
         <v>1149</v>
       </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U67" t="n">
+        <v>10824394</v>
+      </c>
+      <c r="V67" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W67" t="n">
+        <v>754</v>
+      </c>
+      <c r="X67" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -5042,7 +5886,9 @@
       <c r="L68" t="n">
         <v>2748</v>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>139</v>
+      </c>
       <c r="N68" t="n">
         <v>30.3</v>
       </c>
@@ -5058,14 +5904,30 @@
       <c r="R68" t="n">
         <v>1148</v>
       </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U68" t="n">
+        <v>10824394</v>
+      </c>
+      <c r="V68" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W68" t="n">
+        <v>754</v>
+      </c>
+      <c r="X68" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -5104,7 +5966,9 @@
       <c r="L69" t="n">
         <v>2748</v>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>139</v>
+      </c>
       <c r="N69" t="n">
         <v>30.3</v>
       </c>
@@ -5120,14 +5984,30 @@
       <c r="R69" t="n">
         <v>1148</v>
       </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U69" t="n">
+        <v>10824394</v>
+      </c>
+      <c r="V69" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W69" t="n">
+        <v>754</v>
+      </c>
+      <c r="X69" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -5166,7 +6046,9 @@
       <c r="L70" t="n">
         <v>2748</v>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>139</v>
+      </c>
       <c r="N70" t="n">
         <v>30.32</v>
       </c>
@@ -5244,7 +6126,9 @@
       <c r="L71" t="n">
         <v>2749</v>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>139</v>
+      </c>
       <c r="N71" t="n">
         <v>30.32</v>
       </c>
@@ -5260,14 +6144,30 @@
       <c r="R71" t="n">
         <v>1149</v>
       </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U71" t="n">
+        <v>10824694</v>
+      </c>
+      <c r="V71" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W71" t="n">
+        <v>754</v>
+      </c>
+      <c r="X71" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -5306,7 +6206,9 @@
       <c r="L72" t="n">
         <v>2749</v>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>139</v>
+      </c>
       <c r="N72" t="n">
         <v>30.3</v>
       </c>
@@ -5322,14 +6224,30 @@
       <c r="R72" t="n">
         <v>1148</v>
       </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U72" t="n">
+        <v>10824694</v>
+      </c>
+      <c r="V72" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W72" t="n">
+        <v>754</v>
+      </c>
+      <c r="X72" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -5368,7 +6286,9 @@
       <c r="L73" t="n">
         <v>2749</v>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>139</v>
+      </c>
       <c r="N73" t="n">
         <v>30.3</v>
       </c>
@@ -5384,14 +6304,30 @@
       <c r="R73" t="n">
         <v>1148</v>
       </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U73" t="n">
+        <v>10824694</v>
+      </c>
+      <c r="V73" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W73" t="n">
+        <v>754</v>
+      </c>
+      <c r="X73" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -5430,7 +6366,9 @@
       <c r="L74" t="n">
         <v>2749</v>
       </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>139</v>
+      </c>
       <c r="N74" t="n">
         <v>30.3</v>
       </c>
@@ -5446,14 +6384,30 @@
       <c r="R74" t="n">
         <v>1148</v>
       </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U74" t="n">
+        <v>10824694</v>
+      </c>
+      <c r="V74" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W74" t="n">
+        <v>754</v>
+      </c>
+      <c r="X74" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -5492,7 +6446,9 @@
       <c r="L75" t="n">
         <v>2749</v>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>139</v>
+      </c>
       <c r="N75" t="n">
         <v>30.32</v>
       </c>
@@ -5570,7 +6526,9 @@
       <c r="L76" t="n">
         <v>2749</v>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>139</v>
+      </c>
       <c r="N76" t="n">
         <v>30.32</v>
       </c>
@@ -5586,14 +6544,30 @@
       <c r="R76" t="n">
         <v>1149</v>
       </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U76" t="n">
+        <v>10824994</v>
+      </c>
+      <c r="V76" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W76" t="n">
+        <v>754</v>
+      </c>
+      <c r="X76" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -5632,7 +6606,9 @@
       <c r="L77" t="n">
         <v>2749</v>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>139</v>
+      </c>
       <c r="N77" t="n">
         <v>30.32</v>
       </c>
@@ -5648,14 +6624,30 @@
       <c r="R77" t="n">
         <v>1149</v>
       </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U77" t="n">
+        <v>10824994</v>
+      </c>
+      <c r="V77" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W77" t="n">
+        <v>754</v>
+      </c>
+      <c r="X77" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -5694,7 +6686,9 @@
       <c r="L78" t="n">
         <v>2749</v>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>139</v>
+      </c>
       <c r="N78" t="n">
         <v>30.3</v>
       </c>
@@ -5710,14 +6704,30 @@
       <c r="R78" t="n">
         <v>1148</v>
       </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U78" t="n">
+        <v>10824994</v>
+      </c>
+      <c r="V78" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W78" t="n">
+        <v>754</v>
+      </c>
+      <c r="X78" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -5756,7 +6766,9 @@
       <c r="L79" t="n">
         <v>2749</v>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>139</v>
+      </c>
       <c r="N79" t="n">
         <v>30.3</v>
       </c>
@@ -5772,14 +6784,30 @@
       <c r="R79" t="n">
         <v>1148</v>
       </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U79" t="n">
+        <v>10824994</v>
+      </c>
+      <c r="V79" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W79" t="n">
+        <v>754</v>
+      </c>
+      <c r="X79" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -5818,7 +6846,9 @@
       <c r="L80" t="n">
         <v>2749</v>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>139</v>
+      </c>
       <c r="N80" t="n">
         <v>30.32</v>
       </c>
@@ -5896,7 +6926,9 @@
       <c r="L81" t="n">
         <v>2749</v>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>139</v>
+      </c>
       <c r="N81" t="n">
         <v>30.32</v>
       </c>
@@ -5912,14 +6944,30 @@
       <c r="R81" t="n">
         <v>1149</v>
       </c>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U81" t="n">
+        <v>10825294</v>
+      </c>
+      <c r="V81" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W81" t="n">
+        <v>754</v>
+      </c>
+      <c r="X81" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -5958,7 +7006,9 @@
       <c r="L82" t="n">
         <v>2749</v>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>139</v>
+      </c>
       <c r="N82" t="n">
         <v>30.32</v>
       </c>
@@ -5974,14 +7024,30 @@
       <c r="R82" t="n">
         <v>1149</v>
       </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U82" t="n">
+        <v>10825294</v>
+      </c>
+      <c r="V82" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W82" t="n">
+        <v>754</v>
+      </c>
+      <c r="X82" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -6020,7 +7086,9 @@
       <c r="L83" t="n">
         <v>2749</v>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>139</v>
+      </c>
       <c r="N83" t="n">
         <v>30.32</v>
       </c>
@@ -6036,14 +7104,30 @@
       <c r="R83" t="n">
         <v>1149</v>
       </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U83" t="n">
+        <v>10825294</v>
+      </c>
+      <c r="V83" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W83" t="n">
+        <v>754</v>
+      </c>
+      <c r="X83" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -6082,7 +7166,9 @@
       <c r="L84" t="n">
         <v>2750</v>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>139</v>
+      </c>
       <c r="N84" t="n">
         <v>30.3</v>
       </c>
@@ -6098,14 +7184,30 @@
       <c r="R84" t="n">
         <v>1148</v>
       </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U84" t="n">
+        <v>10825294</v>
+      </c>
+      <c r="V84" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W84" t="n">
+        <v>754</v>
+      </c>
+      <c r="X84" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -6144,7 +7246,9 @@
       <c r="L85" t="n">
         <v>2750</v>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>139</v>
+      </c>
       <c r="N85" t="n">
         <v>30.32</v>
       </c>
@@ -6222,7 +7326,9 @@
       <c r="L86" t="n">
         <v>2750</v>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>139</v>
+      </c>
       <c r="N86" t="n">
         <v>30.32</v>
       </c>
@@ -6238,14 +7344,30 @@
       <c r="R86" t="n">
         <v>1149</v>
       </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U86" t="n">
+        <v>10825594</v>
+      </c>
+      <c r="V86" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W86" t="n">
+        <v>754</v>
+      </c>
+      <c r="X86" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -6284,7 +7406,9 @@
       <c r="L87" t="n">
         <v>2750</v>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>139</v>
+      </c>
       <c r="N87" t="n">
         <v>30.32</v>
       </c>
@@ -6300,14 +7424,30 @@
       <c r="R87" t="n">
         <v>1149</v>
       </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U87" t="n">
+        <v>10825594</v>
+      </c>
+      <c r="V87" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W87" t="n">
+        <v>754</v>
+      </c>
+      <c r="X87" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -6346,7 +7486,9 @@
       <c r="L88" t="n">
         <v>2750</v>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>139</v>
+      </c>
       <c r="N88" t="n">
         <v>30.3</v>
       </c>
@@ -6362,14 +7504,30 @@
       <c r="R88" t="n">
         <v>1148</v>
       </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U88" t="n">
+        <v>10825594</v>
+      </c>
+      <c r="V88" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W88" t="n">
+        <v>754</v>
+      </c>
+      <c r="X88" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -6408,7 +7566,9 @@
       <c r="L89" t="n">
         <v>2750</v>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>139</v>
+      </c>
       <c r="N89" t="n">
         <v>30.3</v>
       </c>
@@ -6424,14 +7584,30 @@
       <c r="R89" t="n">
         <v>1148</v>
       </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U89" t="n">
+        <v>10825594</v>
+      </c>
+      <c r="V89" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W89" t="n">
+        <v>754</v>
+      </c>
+      <c r="X89" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -6470,7 +7646,9 @@
       <c r="L90" t="n">
         <v>2750</v>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>139</v>
+      </c>
       <c r="N90" t="n">
         <v>30.32</v>
       </c>
@@ -6548,7 +7726,9 @@
       <c r="L91" t="n">
         <v>2750</v>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>139</v>
+      </c>
       <c r="N91" t="n">
         <v>30.32</v>
       </c>
@@ -6564,14 +7744,30 @@
       <c r="R91" t="n">
         <v>1149</v>
       </c>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
+      <c r="S91" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U91" t="n">
+        <v>10825894</v>
+      </c>
+      <c r="V91" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W91" t="n">
+        <v>754</v>
+      </c>
+      <c r="X91" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -6610,7 +7806,9 @@
       <c r="L92" t="n">
         <v>2750</v>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>139</v>
+      </c>
       <c r="N92" t="n">
         <v>30.32</v>
       </c>
@@ -6626,14 +7824,30 @@
       <c r="R92" t="n">
         <v>1149</v>
       </c>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U92" t="n">
+        <v>10825894</v>
+      </c>
+      <c r="V92" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W92" t="n">
+        <v>754</v>
+      </c>
+      <c r="X92" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -6672,7 +7886,9 @@
       <c r="L93" t="n">
         <v>2750</v>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>139</v>
+      </c>
       <c r="N93" t="n">
         <v>30.32</v>
       </c>
@@ -6688,14 +7904,30 @@
       <c r="R93" t="n">
         <v>1149</v>
       </c>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U93" t="n">
+        <v>10825894</v>
+      </c>
+      <c r="V93" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W93" t="n">
+        <v>754</v>
+      </c>
+      <c r="X93" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -6734,7 +7966,9 @@
       <c r="L94" t="n">
         <v>2750</v>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>139</v>
+      </c>
       <c r="N94" t="n">
         <v>30.3</v>
       </c>
@@ -6750,14 +7984,30 @@
       <c r="R94" t="n">
         <v>1148</v>
       </c>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U94" t="n">
+        <v>10825894</v>
+      </c>
+      <c r="V94" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W94" t="n">
+        <v>754</v>
+      </c>
+      <c r="X94" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -6796,7 +8046,9 @@
       <c r="L95" t="n">
         <v>2750</v>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>139</v>
+      </c>
       <c r="N95" t="n">
         <v>30.32</v>
       </c>
@@ -6874,7 +8126,9 @@
       <c r="L96" t="n">
         <v>2750</v>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>139</v>
+      </c>
       <c r="N96" t="n">
         <v>30.32</v>
       </c>
@@ -6890,14 +8144,30 @@
       <c r="R96" t="n">
         <v>1149</v>
       </c>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U96" t="n">
+        <v>10826194</v>
+      </c>
+      <c r="V96" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W96" t="n">
+        <v>754</v>
+      </c>
+      <c r="X96" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -6936,7 +8206,9 @@
       <c r="L97" t="n">
         <v>2751</v>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>139</v>
+      </c>
       <c r="N97" t="n">
         <v>30.3</v>
       </c>
@@ -6952,14 +8224,30 @@
       <c r="R97" t="n">
         <v>1148</v>
       </c>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U97" t="n">
+        <v>10826194</v>
+      </c>
+      <c r="V97" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W97" t="n">
+        <v>754</v>
+      </c>
+      <c r="X97" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -6998,7 +8286,9 @@
       <c r="L98" t="n">
         <v>2751</v>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>139</v>
+      </c>
       <c r="N98" t="n">
         <v>30.3</v>
       </c>
@@ -7014,14 +8304,30 @@
       <c r="R98" t="n">
         <v>1148</v>
       </c>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U98" t="n">
+        <v>10826194</v>
+      </c>
+      <c r="V98" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W98" t="n">
+        <v>754</v>
+      </c>
+      <c r="X98" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -7060,7 +8366,9 @@
       <c r="L99" t="n">
         <v>2751</v>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>139</v>
+      </c>
       <c r="N99" t="n">
         <v>30.32</v>
       </c>
@@ -7076,14 +8384,30 @@
       <c r="R99" t="n">
         <v>1149</v>
       </c>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U99" t="n">
+        <v>10826194</v>
+      </c>
+      <c r="V99" t="n">
+        <v>7437</v>
+      </c>
+      <c r="W99" t="n">
+        <v>754</v>
+      </c>
+      <c r="X99" t="n">
+        <v>9.205</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -7122,7 +8446,9 @@
       <c r="L100" t="n">
         <v>2751</v>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>139</v>
+      </c>
       <c r="N100" t="n">
         <v>30.22</v>
       </c>
@@ -7200,7 +8526,9 @@
       <c r="L101" t="n">
         <v>2751</v>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>139</v>
+      </c>
       <c r="N101" t="n">
         <v>30.22</v>
       </c>
@@ -7216,14 +8544,30 @@
       <c r="R101" t="n">
         <v>1145</v>
       </c>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U101" t="n">
+        <v>10826494</v>
+      </c>
+      <c r="V101" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W101" t="n">
+        <v>755</v>
+      </c>
+      <c r="X101" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -7262,7 +8606,9 @@
       <c r="L102" t="n">
         <v>2751</v>
       </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>139</v>
+      </c>
       <c r="N102" t="n">
         <v>30.22</v>
       </c>
@@ -7278,14 +8624,30 @@
       <c r="R102" t="n">
         <v>1145</v>
       </c>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U102" t="n">
+        <v>10826494</v>
+      </c>
+      <c r="V102" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W102" t="n">
+        <v>755</v>
+      </c>
+      <c r="X102" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -7324,7 +8686,9 @@
       <c r="L103" t="n">
         <v>2751</v>
       </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>139</v>
+      </c>
       <c r="N103" t="n">
         <v>30.22</v>
       </c>
@@ -7340,14 +8704,30 @@
       <c r="R103" t="n">
         <v>1145</v>
       </c>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U103" t="n">
+        <v>10826494</v>
+      </c>
+      <c r="V103" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W103" t="n">
+        <v>755</v>
+      </c>
+      <c r="X103" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -7386,7 +8766,9 @@
       <c r="L104" t="n">
         <v>2751</v>
       </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>139</v>
+      </c>
       <c r="N104" t="n">
         <v>30.19</v>
       </c>
@@ -7402,14 +8784,30 @@
       <c r="R104" t="n">
         <v>1144</v>
       </c>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U104" t="n">
+        <v>10826494</v>
+      </c>
+      <c r="V104" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W104" t="n">
+        <v>755</v>
+      </c>
+      <c r="X104" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -7448,7 +8846,9 @@
       <c r="L105" t="n">
         <v>2751</v>
       </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>139</v>
+      </c>
       <c r="N105" t="n">
         <v>30.22</v>
       </c>
@@ -7526,7 +8926,9 @@
       <c r="L106" t="n">
         <v>2751</v>
       </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>139</v>
+      </c>
       <c r="N106" t="n">
         <v>30.19</v>
       </c>
@@ -7542,14 +8944,30 @@
       <c r="R106" t="n">
         <v>1144</v>
       </c>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
+      <c r="S106" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U106" t="n">
+        <v>10826794</v>
+      </c>
+      <c r="V106" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W106" t="n">
+        <v>755</v>
+      </c>
+      <c r="X106" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -7588,7 +9006,9 @@
       <c r="L107" t="n">
         <v>2749</v>
       </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>139</v>
+      </c>
       <c r="N107" t="n">
         <v>30.19</v>
       </c>
@@ -7604,14 +9024,30 @@
       <c r="R107" t="n">
         <v>1144</v>
       </c>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U107" t="n">
+        <v>10826794</v>
+      </c>
+      <c r="V107" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W107" t="n">
+        <v>755</v>
+      </c>
+      <c r="X107" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -7650,7 +9086,9 @@
       <c r="L108" t="n">
         <v>2750</v>
       </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>139</v>
+      </c>
       <c r="N108" t="n">
         <v>30.27</v>
       </c>
@@ -7666,14 +9104,30 @@
       <c r="R108" t="n">
         <v>1147</v>
       </c>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U108" t="n">
+        <v>10826794</v>
+      </c>
+      <c r="V108" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W108" t="n">
+        <v>755</v>
+      </c>
+      <c r="X108" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -7712,7 +9166,9 @@
       <c r="L109" t="n">
         <v>2750</v>
       </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>139</v>
+      </c>
       <c r="N109" t="n">
         <v>30.27</v>
       </c>
@@ -7728,14 +9184,30 @@
       <c r="R109" t="n">
         <v>1147</v>
       </c>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U109" t="n">
+        <v>10826794</v>
+      </c>
+      <c r="V109" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W109" t="n">
+        <v>755</v>
+      </c>
+      <c r="X109" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -7774,7 +9246,9 @@
       <c r="L110" t="n">
         <v>2756</v>
       </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>139</v>
+      </c>
       <c r="N110" t="n">
         <v>30.22</v>
       </c>
@@ -7852,7 +9326,9 @@
       <c r="L111" t="n">
         <v>2757</v>
       </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>139</v>
+      </c>
       <c r="N111" t="n">
         <v>30.22</v>
       </c>
@@ -7868,14 +9344,30 @@
       <c r="R111" t="n">
         <v>1145</v>
       </c>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U111" t="n">
+        <v>10827094</v>
+      </c>
+      <c r="V111" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W111" t="n">
+        <v>755</v>
+      </c>
+      <c r="X111" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -7914,7 +9406,9 @@
       <c r="L112" t="n">
         <v>2757</v>
       </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>139</v>
+      </c>
       <c r="N112" t="n">
         <v>30.17</v>
       </c>
@@ -7930,14 +9424,30 @@
       <c r="R112" t="n">
         <v>1143</v>
       </c>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U112" t="n">
+        <v>10827094</v>
+      </c>
+      <c r="V112" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W112" t="n">
+        <v>755</v>
+      </c>
+      <c r="X112" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -7976,7 +9486,9 @@
       <c r="L113" t="n">
         <v>2757</v>
       </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>139</v>
+      </c>
       <c r="N113" t="n">
         <v>30.14</v>
       </c>
@@ -7992,14 +9504,30 @@
       <c r="R113" t="n">
         <v>1142</v>
       </c>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U113" t="n">
+        <v>10827094</v>
+      </c>
+      <c r="V113" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W113" t="n">
+        <v>755</v>
+      </c>
+      <c r="X113" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -8038,7 +9566,9 @@
       <c r="L114" t="n">
         <v>2757</v>
       </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>139</v>
+      </c>
       <c r="N114" t="n">
         <v>30.14</v>
       </c>
@@ -8054,14 +9584,30 @@
       <c r="R114" t="n">
         <v>1142</v>
       </c>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U114" t="n">
+        <v>10827094</v>
+      </c>
+      <c r="V114" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W114" t="n">
+        <v>755</v>
+      </c>
+      <c r="X114" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -8100,7 +9646,9 @@
       <c r="L115" t="n">
         <v>2757</v>
       </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>139</v>
+      </c>
       <c r="N115" t="n">
         <v>30.19</v>
       </c>
@@ -8178,7 +9726,9 @@
       <c r="L116" t="n">
         <v>2757</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>139</v>
+      </c>
       <c r="N116" t="n">
         <v>30.17</v>
       </c>
@@ -8194,14 +9744,30 @@
       <c r="R116" t="n">
         <v>1143</v>
       </c>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U116" t="n">
+        <v>10827394</v>
+      </c>
+      <c r="V116" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W116" t="n">
+        <v>755</v>
+      </c>
+      <c r="X116" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -8240,7 +9806,9 @@
       <c r="L117" t="n">
         <v>2758</v>
       </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>139</v>
+      </c>
       <c r="N117" t="n">
         <v>30.19</v>
       </c>
@@ -8256,14 +9824,30 @@
       <c r="R117" t="n">
         <v>1144</v>
       </c>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U117" t="n">
+        <v>10827394</v>
+      </c>
+      <c r="V117" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W117" t="n">
+        <v>755</v>
+      </c>
+      <c r="X117" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -8302,7 +9886,9 @@
       <c r="L118" t="n">
         <v>2777</v>
       </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>139</v>
+      </c>
       <c r="N118" t="n">
         <v>30.14</v>
       </c>
@@ -8318,14 +9904,30 @@
       <c r="R118" t="n">
         <v>1142</v>
       </c>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U118" t="n">
+        <v>10827394</v>
+      </c>
+      <c r="V118" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W118" t="n">
+        <v>755</v>
+      </c>
+      <c r="X118" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -8364,7 +9966,9 @@
       <c r="L119" t="n">
         <v>2746</v>
       </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>139</v>
+      </c>
       <c r="N119" t="n">
         <v>30.14</v>
       </c>
@@ -8380,14 +9984,30 @@
       <c r="R119" t="n">
         <v>1142</v>
       </c>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
+      <c r="S119" t="n">
+        <v>1472</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="U119" t="n">
+        <v>10827394</v>
+      </c>
+      <c r="V119" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W119" t="n">
+        <v>755</v>
+      </c>
+      <c r="X119" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -8426,7 +10046,9 @@
       <c r="L120" t="n">
         <v>2746</v>
       </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>139</v>
+      </c>
       <c r="N120" t="n">
         <v>30.17</v>
       </c>
@@ -8504,7 +10126,9 @@
       <c r="L121" t="n">
         <v>2746</v>
       </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>139</v>
+      </c>
       <c r="N121" t="n">
         <v>30.17</v>
       </c>
@@ -8600,14 +10224,30 @@
       <c r="R122" t="n">
         <v>1144</v>
       </c>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U122" t="n">
+        <v>10827694</v>
+      </c>
+      <c r="V122" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W122" t="n">
+        <v>755</v>
+      </c>
+      <c r="X122" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -8664,14 +10304,30 @@
       <c r="R123" t="n">
         <v>1144</v>
       </c>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U123" t="n">
+        <v>10827694</v>
+      </c>
+      <c r="V123" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W123" t="n">
+        <v>755</v>
+      </c>
+      <c r="X123" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -8728,14 +10384,30 @@
       <c r="R124" t="n">
         <v>1144</v>
       </c>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
+      <c r="S124" t="n">
+        <v>1440</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U124" t="n">
+        <v>10827694</v>
+      </c>
+      <c r="V124" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W124" t="n">
+        <v>755</v>
+      </c>
+      <c r="X124" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -8872,14 +10544,30 @@
       <c r="R126" t="n">
         <v>1144</v>
       </c>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
+      <c r="S126" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U126" t="n">
+        <v>10827994</v>
+      </c>
+      <c r="V126" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W126" t="n">
+        <v>755</v>
+      </c>
+      <c r="X126" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -8936,14 +10624,30 @@
       <c r="R127" t="n">
         <v>1144</v>
       </c>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U127" t="n">
+        <v>10827994</v>
+      </c>
+      <c r="V127" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W127" t="n">
+        <v>755</v>
+      </c>
+      <c r="X127" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -9000,14 +10704,30 @@
       <c r="R128" t="n">
         <v>1143</v>
       </c>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U128" t="n">
+        <v>10827994</v>
+      </c>
+      <c r="V128" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W128" t="n">
+        <v>755</v>
+      </c>
+      <c r="X128" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -9064,14 +10784,30 @@
       <c r="R129" t="n">
         <v>1143</v>
       </c>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U129" t="n">
+        <v>10827994</v>
+      </c>
+      <c r="V129" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W129" t="n">
+        <v>755</v>
+      </c>
+      <c r="X129" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -9208,14 +10944,30 @@
       <c r="R131" t="n">
         <v>1143</v>
       </c>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
+      <c r="S131" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U131" t="n">
+        <v>10828294</v>
+      </c>
+      <c r="V131" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W131" t="n">
+        <v>755</v>
+      </c>
+      <c r="X131" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -9272,14 +11024,30 @@
       <c r="R132" t="n">
         <v>1144</v>
       </c>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U132" t="n">
+        <v>10828294</v>
+      </c>
+      <c r="V132" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W132" t="n">
+        <v>755</v>
+      </c>
+      <c r="X132" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -9336,14 +11104,30 @@
       <c r="R133" t="n">
         <v>1144</v>
       </c>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U133" t="n">
+        <v>10828294</v>
+      </c>
+      <c r="V133" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W133" t="n">
+        <v>755</v>
+      </c>
+      <c r="X133" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -9400,14 +11184,30 @@
       <c r="R134" t="n">
         <v>1143</v>
       </c>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
+      <c r="S134" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U134" t="n">
+        <v>10828294</v>
+      </c>
+      <c r="V134" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W134" t="n">
+        <v>755</v>
+      </c>
+      <c r="X134" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -9544,14 +11344,30 @@
       <c r="R136" t="n">
         <v>1144</v>
       </c>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
+      <c r="S136" t="n">
+        <v>1536</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="U136" t="n">
+        <v>10828594</v>
+      </c>
+      <c r="V136" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W136" t="n">
+        <v>755</v>
+      </c>
+      <c r="X136" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -9608,14 +11424,30 @@
       <c r="R137" t="n">
         <v>1144</v>
       </c>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
+      <c r="S137" t="n">
+        <v>1536</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="U137" t="n">
+        <v>10828594</v>
+      </c>
+      <c r="V137" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W137" t="n">
+        <v>755</v>
+      </c>
+      <c r="X137" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -9672,14 +11504,30 @@
       <c r="R138" t="n">
         <v>1143</v>
       </c>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
+      <c r="S138" t="n">
+        <v>1536</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="U138" t="n">
+        <v>10828594</v>
+      </c>
+      <c r="V138" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W138" t="n">
+        <v>755</v>
+      </c>
+      <c r="X138" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -9736,14 +11584,30 @@
       <c r="R139" t="n">
         <v>1145</v>
       </c>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
+      <c r="S139" t="n">
+        <v>1536</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="U139" t="n">
+        <v>10828594</v>
+      </c>
+      <c r="V139" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W139" t="n">
+        <v>755</v>
+      </c>
+      <c r="X139" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -9880,14 +11744,30 @@
       <c r="R141" t="n">
         <v>1144</v>
       </c>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
+      <c r="S141" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U141" t="n">
+        <v>10828894</v>
+      </c>
+      <c r="V141" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W141" t="n">
+        <v>755</v>
+      </c>
+      <c r="X141" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -9944,14 +11824,30 @@
       <c r="R142" t="n">
         <v>1145</v>
       </c>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="S142" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U142" t="n">
+        <v>10828894</v>
+      </c>
+      <c r="V142" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W142" t="n">
+        <v>755</v>
+      </c>
+      <c r="X142" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -10008,56 +11904,110 @@
       <c r="R143" t="n">
         <v>1143</v>
       </c>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
+      <c r="S143" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U143" t="n">
+        <v>10828894</v>
+      </c>
+      <c r="V143" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W143" t="n">
+        <v>755</v>
+      </c>
+      <c r="X143" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>97.66</v>
+      </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>2.34</v>
+      </c>
       <c r="E144" t="n">
         <v>1.5</v>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="H144" t="n">
         <v>0.06</v>
       </c>
       <c r="I144" t="n">
         <v>0.01</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.04</v>
+      </c>
       <c r="L144" t="n">
         <v>2760</v>
       </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>133</v>
+      </c>
       <c r="N144" t="n">
         <v>30.17</v>
       </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
+      <c r="O144" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="P144" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>2646</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1143</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1504</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="U144" t="n">
+        <v>10828894</v>
+      </c>
+      <c r="V144" t="n">
+        <v>7436</v>
+      </c>
+      <c r="W144" t="n">
+        <v>755</v>
+      </c>
+      <c r="X144" t="n">
+        <v>9.217000000000001</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
